--- a/greenplum/datawarehouse/QA/qa-all-db-checks/medicaid/column_mapping.xlsx
+++ b/greenplum/datawarehouse/QA/qa-all-db-checks/medicaid/column_mapping.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Users\XIAORUI\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4037B9-6F55-44C4-845B-A54F133CF8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34F528-8336-4C7A-9A62-C75408054BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="2655" windowWidth="18405" windowHeight="9870" activeTab="1" xr2:uid="{AD3D203F-0C60-461D-93BC-33F3DA8D3CA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{AD3D203F-0C60-461D-93BC-33F3DA8D3CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="1" r:id="rId1"/>
     <sheet name="details" sheetId="2" r:id="rId2"/>
     <sheet name="details 2" sheetId="7" r:id="rId3"/>
     <sheet name="details 3" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="rx" sheetId="9" r:id="rId5"/>
+    <sheet name="rx_scratch" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">details!$A$1:$J$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'details 2'!$A$1:$J$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'details 3'!$A$1:$K$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">header!$A$1:$E$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">rx!$A$1:$E$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="247">
   <si>
     <t>common</t>
   </si>
@@ -241,12 +242,6 @@
     <t>clm_dtl_nbr</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -289,36 +284,12 @@
     <t>ln_nbr</t>
   </si>
   <si>
-    <t>fdos_dt</t>
-  </si>
-  <si>
-    <t>tdos_csl</t>
-  </si>
-  <si>
-    <t>sub_chrg_amt</t>
-  </si>
-  <si>
-    <t>dt_pd_amt</t>
-  </si>
-  <si>
     <t>dt_ln_unt</t>
   </si>
   <si>
-    <t>proc_mod_cd_1</t>
-  </si>
-  <si>
-    <t>proc_mod_cd_2</t>
-  </si>
-  <si>
     <t>sub_opt_phy_npi</t>
   </si>
   <si>
-    <t>sub_ref_prov_npi</t>
-  </si>
-  <si>
-    <t>sub_rend_prov_npi</t>
-  </si>
-  <si>
     <t>data_source</t>
   </si>
   <si>
@@ -328,9 +299,6 @@
     <t>uth_member_id</t>
   </si>
   <si>
-    <t>uth_claim_id</t>
-  </si>
-  <si>
     <t>claim_sequence_number</t>
   </si>
   <si>
@@ -340,12 +308,6 @@
     <t>place_of_service</t>
   </si>
   <si>
-    <t>network_ind</t>
-  </si>
-  <si>
-    <t>network_paid_ind</t>
-  </si>
-  <si>
     <t>admit_date</t>
   </si>
   <si>
@@ -358,9 +320,6 @@
     <t>cpt_hcpcs_cd</t>
   </si>
   <si>
-    <t>procedure_type</t>
-  </si>
-  <si>
     <t>drg_cd</t>
   </si>
   <si>
@@ -403,9 +362,6 @@
     <t>cost_factor_year</t>
   </si>
   <si>
-    <t>other_provider</t>
-  </si>
-  <si>
     <t>perf_rn_provider</t>
   </si>
   <si>
@@ -415,51 +371,12 @@
     <t>member_id_src</t>
   </si>
   <si>
-    <t>char(4)</t>
-  </si>
-  <si>
-    <t>int2</t>
-  </si>
-  <si>
-    <t>int8</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>int2 (4 digits)</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>procedure_cd</t>
-  </si>
-  <si>
-    <t>char(1)</t>
-  </si>
-  <si>
     <t>int4</t>
   </si>
   <si>
-    <t>table_name_src</t>
-  </si>
-  <si>
-    <t>claim_sequence_number_src</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>char(2)</t>
-  </si>
-  <si>
-    <t>mdcd</t>
-  </si>
-  <si>
     <t>medicaid</t>
   </si>
   <si>
@@ -469,9 +386,6 @@
     <t>data_warehouse</t>
   </si>
   <si>
-    <t>dim_uth_claim_id</t>
-  </si>
-  <si>
     <t>clm_header</t>
   </si>
   <si>
@@ -502,9 +416,6 @@
     <t>drg</t>
   </si>
   <si>
-    <t>pat_stat</t>
-  </si>
-  <si>
     <t>data_type</t>
   </si>
   <si>
@@ -659,13 +570,253 @@
   </si>
   <si>
     <t>on a.spc_claim_id_src = b.claim_id_src and trim(a.spc_claim_sequence_number)::int = b.claim_sequence_number;</t>
+  </si>
+  <si>
+    <t>uth_rx_claim_id</t>
+  </si>
+  <si>
+    <t>fill_date</t>
+  </si>
+  <si>
+    <t>ndc</t>
+  </si>
+  <si>
+    <t>days_supply</t>
+  </si>
+  <si>
+    <t>script_id</t>
+  </si>
+  <si>
+    <t>refill_count</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>provider_npi</t>
+  </si>
+  <si>
+    <t>pharmacy_id</t>
+  </si>
+  <si>
+    <t>rx_claim_id_src</t>
+  </si>
+  <si>
+    <t>table_id_src</t>
+  </si>
+  <si>
+    <t>mdcd'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extract(year from a.rx_fill_dt) as yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b.uth_rx_claim_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b.uth_member_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a.rx_fill_dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a.ndc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a.rx_days_supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a.rx_nbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a.refill_nbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get_my_from_date(a.rx_fill_dt) as month_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> month_year_id</t>
+  </si>
+  <si>
+    <t>a.qty_prescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a.prescriber_npi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a.phmcy_nbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a.gross_amt_due </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  a.amount_paid</t>
+  </si>
+  <si>
+    <t>column_name</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>generic_ind</t>
+  </si>
+  <si>
+    <t>generic_name</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>therapeutic_class</t>
+  </si>
+  <si>
+    <t>ahfs_class</t>
+  </si>
+  <si>
+    <t>first_fill</t>
+  </si>
+  <si>
+    <t>retail_or_mail_indicator</t>
+  </si>
+  <si>
+    <t>dispensed_as_written</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>formulary_ind</t>
+  </si>
+  <si>
+    <t>special_drug_ind</t>
+  </si>
+  <si>
+    <t>uth_script_id</t>
+  </si>
+  <si>
+    <t>load_date</t>
+  </si>
+  <si>
+    <t>a.year_fy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pcn || ndc || replace(rx_fill_dt::text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pcn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'chip'</t>
+  </si>
+  <si>
+    <t>rx_fill_dt</t>
+  </si>
+  <si>
+    <t>rx_days_supply</t>
+  </si>
+  <si>
+    <t>rx_nbr</t>
+  </si>
+  <si>
+    <t>refill_nbr</t>
+  </si>
+  <si>
+    <t>qty_prescribed</t>
+  </si>
+  <si>
+    <t>prescriber_npi</t>
+  </si>
+  <si>
+    <t>phmcy_nbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gross_amt_due </t>
+  </si>
+  <si>
+    <t>amount_paid</t>
+  </si>
+  <si>
+    <t>year_fy</t>
+  </si>
+  <si>
+    <t>'mdcd'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extract(year from rx_fill_dt) as yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get_my_from_date(rx_fill_dt) as month_year</t>
+  </si>
+  <si>
+    <t>used?</t>
+  </si>
+  <si>
+    <t>'chip'</t>
+  </si>
+  <si>
+    <t>'2012'</t>
+  </si>
+  <si>
+    <t>from medicaid.dbo.chip_rx_fy12 tablesample(6000 rows);</t>
+  </si>
+  <si>
+    <t>select top 50</t>
+  </si>
+  <si>
+    <t>from dev.xz_dwqa_temp1 a left join dw_staging.pharmacy_claims b</t>
+  </si>
+  <si>
+    <t>concat(pcn, ndc, replace(rx_fill_dt, '-', '')) as rx_id</t>
+  </si>
+  <si>
+    <t>on a.</t>
+  </si>
+  <si>
+    <t>rx_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = </t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>spc_fy,</t>
+  </si>
+  <si>
+    <t>from dev</t>
+  </si>
+  <si>
+    <t>xz_dwqa_temp2</t>
+  </si>
+  <si>
+    <t>group by spc_fy</t>
+  </si>
+  <si>
+    <t>order by spc_fy;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +850,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -766,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -792,6 +958,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,7 +1284,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2079,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E911EDF-A115-4727-8786-0B67BB922E0F}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2102,29 +2277,29 @@
         <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2132,29 +2307,29 @@
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2165,26 +2340,26 @@
         <v>32</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2195,26 +2370,26 @@
         <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2222,29 +2397,29 @@
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2252,29 +2427,29 @@
         <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2282,29 +2457,29 @@
         <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2312,29 +2487,29 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2342,29 +2517,29 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2372,29 +2547,29 @@
         <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2402,29 +2577,29 @@
         <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2432,19 +2607,19 @@
         <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
@@ -2461,26 +2636,26 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2488,29 +2663,29 @@
         <v>38</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2518,10 +2693,10 @@
         <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2530,13 +2705,13 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2547,26 +2722,26 @@
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2574,29 +2749,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2604,29 +2779,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2634,29 +2809,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2667,26 +2842,26 @@
         <v>38</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2694,29 +2869,29 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2724,29 +2899,29 @@
         <v>28</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2754,29 +2929,29 @@
         <v>29</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2784,29 +2959,29 @@
         <v>30</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2814,10 +2989,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="8"/>
@@ -2826,13 +3001,13 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2840,29 +3015,29 @@
         <v>42</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2880,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370545C3-F565-4503-9EE7-CDDEBF0DE4FA}">
   <dimension ref="A1:Y111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="J64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84:Y111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2919,29 +3094,29 @@
         <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -2954,29 +3129,29 @@
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M2" s="2" t="str" cm="1">
         <f t="array" ref="M2">_xlfn.SWITCH(E2, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -2987,7 +3162,7 @@
         <v>clm_dtl_nbr</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="2" t="str">
         <f>B2</f>
@@ -3009,26 +3184,26 @@
         <v>32</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="M3" s="2" t="str" cm="1">
         <f t="array" ref="M3">_xlfn.SWITCH(E3, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3039,7 +3214,7 @@
         <v>from_dos</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="2" t="str">
         <f t="shared" ref="Q3:Q26" si="1">B3</f>
@@ -3061,26 +3236,26 @@
         <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="M4" s="2" t="str" cm="1">
         <f t="array" ref="M4">_xlfn.SWITCH(E4, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3091,7 +3266,7 @@
         <v>to_dos</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3110,29 +3285,29 @@
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="M5" s="2" t="str" cm="1">
         <f t="array" ref="M5">_xlfn.SWITCH(E5, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3143,7 +3318,7 @@
         <v>pos</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3162,29 +3337,29 @@
         <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="M6" s="2" t="str" cm="1">
         <f t="array" ref="M6">_xlfn.SWITCH(E6, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3195,7 +3370,7 @@
         <v>proc_cd</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3214,29 +3389,29 @@
         <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="M7" s="2" t="str" cm="1">
         <f t="array" ref="M7">_xlfn.SWITCH(E7, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3247,7 +3422,7 @@
         <v>proc_mod_1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3266,29 +3441,29 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M8" s="2" t="str" cm="1">
         <f t="array" ref="M8">_xlfn.SWITCH(E8, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3299,7 +3474,7 @@
         <v>proc_mod_2</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3318,29 +3493,29 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="M9" s="2" t="str" cm="1">
         <f t="array" ref="M9">_xlfn.SWITCH(E9, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3351,7 +3526,7 @@
         <v>rev_cd</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3370,29 +3545,29 @@
         <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="M10" s="2" t="str" cm="1">
         <f t="array" ref="M10">_xlfn.SWITCH(E10, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3403,7 +3578,7 @@
         <v>dtl_bill_amt</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3422,29 +3597,29 @@
         <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="M11" s="2" t="str" cm="1">
         <f t="array" ref="M11">_xlfn.SWITCH(E11, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3455,7 +3630,7 @@
         <v>dtl_alwd_amt</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3474,19 +3649,19 @@
         <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
@@ -3503,7 +3678,7 @@
         <v>dtl_pd_amt</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3525,26 +3700,26 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2" t="str" cm="1">
         <f t="array" ref="M13">_xlfn.SWITCH(E13, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3555,7 +3730,7 @@
         <v>ref_prov_npi</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3574,29 +3749,29 @@
         <v>38</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="M14" s="2" t="str" cm="1">
         <f t="array" ref="M14">_xlfn.SWITCH(E14, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3607,7 +3782,7 @@
         <v>perf_prov_npi</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3626,10 +3801,10 @@
         <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -3638,13 +3813,13 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M15" s="2" t="str" cm="1">
         <f t="array" ref="M15">_xlfn.SWITCH(E15, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3655,7 +3830,7 @@
         <v>NULL</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3677,26 +3852,26 @@
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2" t="str" cm="1">
         <f t="array" ref="M16">_xlfn.SWITCH(E16, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3707,7 +3882,7 @@
         <v>txm_cd</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3726,29 +3901,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M17" s="2" t="str" cm="1">
         <f t="array" ref="M17">_xlfn.SWITCH(E17, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3759,7 +3934,7 @@
         <v>adm_dt</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3778,29 +3953,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="M18" s="2" t="str" cm="1">
         <f t="array" ref="M18">_xlfn.SWITCH(E18, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3811,7 +3986,7 @@
         <v>dis_dt</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3830,29 +4005,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="M19" s="2" t="str" cm="1">
         <f t="array" ref="M19">_xlfn.SWITCH(E19, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3863,7 +4038,7 @@
         <v>pat_stat_cd</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3885,26 +4060,26 @@
         <v>38</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="M20" s="2" t="str" cm="1">
         <f t="array" ref="M20">_xlfn.SWITCH(E20, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3915,7 +4090,7 @@
         <v>icn</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3934,29 +4109,29 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2" t="str" cm="1">
         <f t="array" ref="M21">_xlfn.SWITCH(E21, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -3967,7 +4142,7 @@
         <v>drg</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3986,32 +4161,32 @@
         <v>28</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="M22" s="2" t="str" cm="1">
         <f t="array" ref="M22">_xlfn.SWITCH(E22, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -4022,10 +4197,10 @@
         <v>bill</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4044,32 +4219,32 @@
         <v>29</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="M23" s="2" t="str" cm="1">
         <f t="array" ref="M23">_xlfn.SWITCH(E23, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -4080,10 +4255,10 @@
         <v>bill</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4102,32 +4277,32 @@
         <v>30</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="M24" s="2" t="str" cm="1">
         <f t="array" ref="M24">_xlfn.SWITCH(E24, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -4138,10 +4313,10 @@
         <v>bill</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4160,10 +4335,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="8"/>
@@ -4172,13 +4347,13 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M25" s="2" t="str" cm="1">
         <f t="array" ref="M25">_xlfn.SWITCH(E25, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -4189,7 +4364,7 @@
         <v>NULL</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4208,29 +4383,29 @@
         <v>42</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="M26" s="2" t="str" cm="1">
         <f t="array" ref="M26">_xlfn.SWITCH(E26, "clm_detail", "a.", "clm_header", "b.", "clm_proc", "c.", "")</f>
@@ -4241,7 +4416,7 @@
         <v>pcn</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4270,7 +4445,7 @@
         <v>ln_nbr</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="2" t="str">
         <f>B2</f>
@@ -4294,7 +4469,7 @@
         <v xml:space="preserve">fdos_dt </v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="2" t="str">
         <f t="shared" ref="Q30:Q53" si="5">B3</f>
@@ -4318,7 +4493,7 @@
         <v xml:space="preserve">tdos_csl </v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q31" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4342,7 +4517,7 @@
         <v xml:space="preserve">pos </v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q32" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4366,7 +4541,7 @@
         <v xml:space="preserve">proc_cd </v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q33" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4390,7 +4565,7 @@
         <v xml:space="preserve">proc_mod_cd_1 </v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4414,7 +4589,7 @@
         <v xml:space="preserve">proc_mod_cd_2 </v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4438,7 +4613,7 @@
         <v xml:space="preserve">rev_cd </v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q36" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4462,7 +4637,7 @@
         <v xml:space="preserve">sub_chrg_amt </v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4486,7 +4661,7 @@
         <v xml:space="preserve">dt_pd_amt </v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4510,7 +4685,7 @@
         <v>NULL</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4534,7 +4709,7 @@
         <v xml:space="preserve">sub_ref_prov_npi </v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4558,7 +4733,7 @@
         <v xml:space="preserve">sub_rend_prov_npi </v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4582,7 +4757,7 @@
         <v>sub_opt_phy_npi</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4606,7 +4781,7 @@
         <v xml:space="preserve">sub_rend_prv_tax_cd </v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4630,7 +4805,7 @@
         <v xml:space="preserve">adm_dt </v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q44" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4654,7 +4829,7 @@
         <v xml:space="preserve">dis_dt </v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q45" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4678,7 +4853,7 @@
         <v xml:space="preserve">pat_stat </v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q46" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4702,7 +4877,7 @@
         <v xml:space="preserve">derv_enc </v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q47" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4726,7 +4901,7 @@
         <v xml:space="preserve">drg </v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q48" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4742,7 +4917,7 @@
     </row>
     <row r="49" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L49" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="M49" s="2" t="str" cm="1">
         <f t="array" ref="M49">_xlfn.SWITCH(I22, "enc_det", "a.", "enc_header", "b.", "enc_proc", "c.", "")</f>
@@ -4753,10 +4928,10 @@
         <v>bill</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q49" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4772,7 +4947,7 @@
     </row>
     <row r="50" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L50" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="M50" s="2" t="str" cm="1">
         <f t="array" ref="M50">_xlfn.SWITCH(I23, "enc_det", "a.", "enc_header", "b.", "enc_proc", "c.", "")</f>
@@ -4783,10 +4958,10 @@
         <v>bill</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q50" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4802,7 +4977,7 @@
     </row>
     <row r="51" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L51" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="M51" s="2" t="str" cm="1">
         <f t="array" ref="M51">_xlfn.SWITCH(I24, "enc_det", "a.", "enc_header", "b.", "enc_proc", "c.", "")</f>
@@ -4813,10 +4988,10 @@
         <v>bill</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q51" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4840,7 +5015,7 @@
         <v>dt_ln_unt</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q52" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4864,7 +5039,7 @@
         <v xml:space="preserve">mem_id </v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q53" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4882,7 +5057,7 @@
     </row>
     <row r="58" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L58" s="2" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="Y58" s="2" t="str">
         <f t="shared" ref="Y58:Y83" si="6">_xlfn.CONCAT(L58:W58)</f>
@@ -4891,7 +5066,7 @@
     </row>
     <row r="59" spans="12:25" x14ac:dyDescent="0.3">
       <c r="M59" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N59" s="2" t="str">
         <f t="shared" ref="N59:N83" si="7">B2</f>
@@ -4907,7 +5082,7 @@
     </row>
     <row r="60" spans="12:25" x14ac:dyDescent="0.3">
       <c r="M60" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N60" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4923,7 +5098,7 @@
     </row>
     <row r="61" spans="12:25" x14ac:dyDescent="0.3">
       <c r="M61" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N61" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4939,7 +5114,7 @@
     </row>
     <row r="62" spans="12:25" x14ac:dyDescent="0.3">
       <c r="M62" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N62" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4955,7 +5130,7 @@
     </row>
     <row r="63" spans="12:25" x14ac:dyDescent="0.3">
       <c r="M63" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N63" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4971,7 +5146,7 @@
     </row>
     <row r="64" spans="12:25" x14ac:dyDescent="0.3">
       <c r="M64" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N64" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4987,7 +5162,7 @@
     </row>
     <row r="65" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M65" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N65" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5003,7 +5178,7 @@
     </row>
     <row r="66" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M66" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N66" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5019,7 +5194,7 @@
     </row>
     <row r="67" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M67" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N67" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5035,7 +5210,7 @@
     </row>
     <row r="68" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M68" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N68" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5051,7 +5226,7 @@
     </row>
     <row r="69" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M69" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N69" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5067,7 +5242,7 @@
     </row>
     <row r="70" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M70" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N70" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5083,7 +5258,7 @@
     </row>
     <row r="71" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M71" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N71" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5099,7 +5274,7 @@
     </row>
     <row r="72" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M72" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N72" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5115,7 +5290,7 @@
     </row>
     <row r="73" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M73" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N73" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5131,7 +5306,7 @@
     </row>
     <row r="74" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M74" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N74" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5147,7 +5322,7 @@
     </row>
     <row r="75" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M75" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N75" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5163,7 +5338,7 @@
     </row>
     <row r="76" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M76" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N76" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5179,7 +5354,7 @@
     </row>
     <row r="77" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M77" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N77" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5195,7 +5370,7 @@
     </row>
     <row r="78" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M78" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N78" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5211,7 +5386,7 @@
     </row>
     <row r="79" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M79" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N79" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5227,7 +5402,7 @@
     </row>
     <row r="80" spans="13:25" x14ac:dyDescent="0.3">
       <c r="M80" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N80" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5243,7 +5418,7 @@
     </row>
     <row r="81" spans="12:25" x14ac:dyDescent="0.3">
       <c r="M81" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N81" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5259,7 +5434,7 @@
     </row>
     <row r="82" spans="12:25" x14ac:dyDescent="0.3">
       <c r="M82" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N82" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5275,7 +5450,7 @@
     </row>
     <row r="83" spans="12:25" x14ac:dyDescent="0.3">
       <c r="M83" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N83" s="2" t="str">
         <f t="shared" si="7"/>
@@ -5291,31 +5466,31 @@
     </row>
     <row r="84" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L84" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N84" s="2" t="str">
         <f>N59</f>
         <v>claim_sequence_number</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P84" s="2" t="str">
         <f>T84</f>
         <v>claim_sequence_number</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R84" s="2" t="str">
         <f t="shared" ref="R84:R108" si="8">N84</f>
         <v>claim_sequence_number</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T84" s="2" t="str">
         <f>R84</f>
@@ -5329,7 +5504,7 @@
         <v>claim_sequence_number</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y84" s="2" t="str">
         <f>_xlfn.CONCAT(L84:W84)</f>
@@ -5338,31 +5513,31 @@
     </row>
     <row r="85" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L85" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N85" s="2" t="str">
         <f t="shared" ref="N85:N108" si="9">N60</f>
         <v>from_date_of_service</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P85" s="2" t="str">
         <f t="shared" ref="P85:P108" si="10">T85</f>
         <v>from_date_of_service</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R85" s="2" t="str">
         <f t="shared" si="8"/>
         <v>from_date_of_service</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T85" s="2" t="str">
         <f t="shared" ref="T85:T103" si="11">R85</f>
@@ -5376,7 +5551,7 @@
         <v>from_date_of_service</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y85" s="2" t="str">
         <f t="shared" ref="Y85:Y111" si="13">_xlfn.CONCAT(L85:W85)</f>
@@ -5385,31 +5560,31 @@
     </row>
     <row r="86" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L86" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N86" s="2" t="str">
         <f t="shared" si="9"/>
         <v>to_date_of_service</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P86" s="2" t="str">
         <f t="shared" si="10"/>
         <v>to_date_of_service</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R86" s="2" t="str">
         <f t="shared" si="8"/>
         <v>to_date_of_service</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T86" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5423,7 +5598,7 @@
         <v>to_date_of_service</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y86" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5432,31 +5607,31 @@
     </row>
     <row r="87" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L87" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N87" s="2" t="str">
         <f t="shared" si="9"/>
         <v>place_of_service</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P87" s="2" t="str">
         <f t="shared" si="10"/>
         <v>place_of_service</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R87" s="2" t="str">
         <f t="shared" si="8"/>
         <v>place_of_service</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T87" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5470,7 +5645,7 @@
         <v>place_of_service</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y87" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5479,31 +5654,31 @@
     </row>
     <row r="88" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L88" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N88" s="2" t="str">
         <f t="shared" si="9"/>
         <v>cpt_hcpcs_cd</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P88" s="2" t="str">
         <f t="shared" si="10"/>
         <v>cpt_hcpcs_cd</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R88" s="2" t="str">
         <f t="shared" si="8"/>
         <v>cpt_hcpcs_cd</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T88" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5517,7 +5692,7 @@
         <v>cpt_hcpcs_cd</v>
       </c>
       <c r="W88" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y88" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5526,31 +5701,31 @@
     </row>
     <row r="89" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L89" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N89" s="2" t="str">
         <f t="shared" si="9"/>
         <v>proc_mod_1</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P89" s="2" t="str">
         <f t="shared" si="10"/>
         <v>proc_mod_1</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R89" s="2" t="str">
         <f t="shared" si="8"/>
         <v>proc_mod_1</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T89" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5564,7 +5739,7 @@
         <v>proc_mod_1</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y89" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5573,31 +5748,31 @@
     </row>
     <row r="90" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L90" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N90" s="2" t="str">
         <f t="shared" si="9"/>
         <v>proc_mod_2</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P90" s="2" t="str">
         <f t="shared" si="10"/>
         <v>proc_mod_2</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R90" s="2" t="str">
         <f t="shared" si="8"/>
         <v>proc_mod_2</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T90" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5611,7 +5786,7 @@
         <v>proc_mod_2</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y90" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5620,31 +5795,31 @@
     </row>
     <row r="91" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L91" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N91" s="2" t="str">
         <f t="shared" si="9"/>
         <v>revenue_cd</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P91" s="2" t="str">
         <f t="shared" si="10"/>
         <v>revenue_cd</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R91" s="2" t="str">
         <f t="shared" si="8"/>
         <v>revenue_cd</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T91" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5658,7 +5833,7 @@
         <v>revenue_cd</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y91" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5667,45 +5842,45 @@
     </row>
     <row r="92" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L92" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N92" s="2" t="str">
         <f t="shared" si="9"/>
         <v>charge_amount</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P92" s="2" t="str">
         <f t="shared" si="10"/>
         <v>charge_amount</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R92" s="2" t="str">
         <f t="shared" si="8"/>
         <v>charge_amount</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T92" s="2" t="str">
         <f t="shared" si="11"/>
         <v>charge_amount</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="V92" s="2" t="str">
         <f t="shared" si="12"/>
         <v>charge_amount</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y92" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5714,45 +5889,45 @@
     </row>
     <row r="93" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L93" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N93" s="2" t="str">
         <f t="shared" si="9"/>
         <v>allowed_amount</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P93" s="2" t="str">
         <f t="shared" si="10"/>
         <v>allowed_amount</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R93" s="2" t="str">
         <f t="shared" si="8"/>
         <v>allowed_amount</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T93" s="2" t="str">
         <f t="shared" si="11"/>
         <v>allowed_amount</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="V93" s="2" t="str">
         <f t="shared" si="12"/>
         <v>allowed_amount</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y93" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5761,45 +5936,45 @@
     </row>
     <row r="94" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L94" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N94" s="2" t="str">
         <f t="shared" si="9"/>
         <v>paid_amount</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P94" s="2" t="str">
         <f t="shared" si="10"/>
         <v>paid_amount</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R94" s="2" t="str">
         <f t="shared" si="8"/>
         <v>paid_amount</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T94" s="2" t="str">
         <f t="shared" si="11"/>
         <v>paid_amount</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="V94" s="2" t="str">
         <f t="shared" si="12"/>
         <v>paid_amount</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y94" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5808,31 +5983,31 @@
     </row>
     <row r="95" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L95" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N95" s="2" t="str">
         <f t="shared" si="9"/>
         <v>ref_provider</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P95" s="2" t="str">
         <f t="shared" si="10"/>
         <v>ref_provider</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R95" s="2" t="str">
         <f t="shared" si="8"/>
         <v>ref_provider</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T95" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5846,7 +6021,7 @@
         <v>ref_provider</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y95" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5855,31 +6030,31 @@
     </row>
     <row r="96" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L96" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N96" s="2" t="str">
         <f t="shared" si="9"/>
         <v>perf_rn_provider</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P96" s="2" t="str">
         <f t="shared" si="10"/>
         <v>perf_rn_provider</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R96" s="2" t="str">
         <f t="shared" si="8"/>
         <v>perf_rn_provider</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T96" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5893,7 +6068,7 @@
         <v>perf_rn_provider</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y96" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5902,31 +6077,31 @@
     </row>
     <row r="97" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L97" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N97" s="2" t="str">
         <f t="shared" si="9"/>
         <v>perf_op_provider</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P97" s="2" t="str">
         <f t="shared" si="10"/>
         <v>perf_op_provider</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R97" s="2" t="str">
         <f t="shared" si="8"/>
         <v>perf_op_provider</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T97" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5940,7 +6115,7 @@
         <v>perf_op_provider</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y97" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5949,31 +6124,31 @@
     </row>
     <row r="98" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L98" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N98" s="2" t="str">
         <f t="shared" si="9"/>
         <v>provider_type</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P98" s="2" t="str">
         <f t="shared" si="10"/>
         <v>provider_type</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R98" s="2" t="str">
         <f t="shared" si="8"/>
         <v>provider_type</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T98" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5987,7 +6162,7 @@
         <v>provider_type</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y98" s="2" t="str">
         <f t="shared" si="13"/>
@@ -5996,31 +6171,31 @@
     </row>
     <row r="99" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L99" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N99" s="2" t="str">
         <f t="shared" si="9"/>
         <v>admit_date</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P99" s="2" t="str">
         <f t="shared" si="10"/>
         <v>admit_date</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R99" s="2" t="str">
         <f t="shared" si="8"/>
         <v>admit_date</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T99" s="2" t="str">
         <f t="shared" si="11"/>
@@ -6034,7 +6209,7 @@
         <v>admit_date</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y99" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6043,31 +6218,31 @@
     </row>
     <row r="100" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L100" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N100" s="2" t="str">
         <f t="shared" si="9"/>
         <v>discharge_date</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P100" s="2" t="str">
         <f t="shared" si="10"/>
         <v>discharge_date</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R100" s="2" t="str">
         <f t="shared" si="8"/>
         <v>discharge_date</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T100" s="2" t="str">
         <f t="shared" si="11"/>
@@ -6081,7 +6256,7 @@
         <v>discharge_date</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y100" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6090,31 +6265,31 @@
     </row>
     <row r="101" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L101" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N101" s="2" t="str">
         <f t="shared" si="9"/>
         <v>discharge_status</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P101" s="2" t="str">
         <f t="shared" si="10"/>
         <v>discharge_status</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R101" s="2" t="str">
         <f t="shared" si="8"/>
         <v>discharge_status</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T101" s="2" t="str">
         <f t="shared" si="11"/>
@@ -6128,7 +6303,7 @@
         <v>discharge_status</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y101" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6137,31 +6312,31 @@
     </row>
     <row r="102" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L102" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N102" s="2" t="str">
         <f t="shared" si="9"/>
         <v>claim_id_src</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P102" s="2" t="str">
         <f t="shared" si="10"/>
         <v>claim_id_src</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R102" s="2" t="str">
         <f t="shared" si="8"/>
         <v>claim_id_src</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T102" s="2" t="str">
         <f t="shared" si="11"/>
@@ -6175,7 +6350,7 @@
         <v>claim_id_src</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y102" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6184,31 +6359,31 @@
     </row>
     <row r="103" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L103" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N103" s="2" t="str">
         <f t="shared" si="9"/>
         <v>drg_cd</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P103" s="2" t="str">
         <f t="shared" si="10"/>
         <v>drg_cd</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R103" s="2" t="str">
         <f t="shared" si="8"/>
         <v>drg_cd</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T103" s="2" t="str">
         <f t="shared" si="11"/>
@@ -6222,7 +6397,7 @@
         <v>drg_cd</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y103" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6231,31 +6406,31 @@
     </row>
     <row r="104" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L104" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N104" s="2" t="str">
         <f>N79</f>
         <v>bill_type_inst</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P104" s="2" t="str">
         <f t="shared" si="10"/>
         <v>bill_type_inst</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R104" s="2" t="str">
         <f t="shared" si="8"/>
         <v>bill_type_inst</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T104" s="2" t="str">
         <f>R104</f>
@@ -6269,7 +6444,7 @@
         <v>bill_type_inst</v>
       </c>
       <c r="W104" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y104" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6278,31 +6453,31 @@
     </row>
     <row r="105" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L105" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N105" s="2" t="str">
         <f t="shared" si="9"/>
         <v>bill_type_class</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P105" s="2" t="str">
         <f t="shared" si="10"/>
         <v>bill_type_class</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R105" s="2" t="str">
         <f t="shared" si="8"/>
         <v>bill_type_class</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T105" s="2" t="str">
         <f>R105</f>
@@ -6316,7 +6491,7 @@
         <v>bill_type_class</v>
       </c>
       <c r="W105" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y105" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6325,31 +6500,31 @@
     </row>
     <row r="106" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L106" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N106" s="2" t="str">
         <f t="shared" si="9"/>
         <v>bill_type_freq</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P106" s="2" t="str">
         <f t="shared" si="10"/>
         <v>bill_type_freq</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R106" s="2" t="str">
         <f t="shared" si="8"/>
         <v>bill_type_freq</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T106" s="2" t="str">
         <f>R106</f>
@@ -6363,7 +6538,7 @@
         <v>bill_type_freq</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y106" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6372,45 +6547,45 @@
     </row>
     <row r="107" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L107" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N107" s="2" t="str">
         <f>N82</f>
         <v>units</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P107" s="2" t="str">
         <f t="shared" si="10"/>
         <v>units</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R107" s="2" t="str">
         <f t="shared" si="8"/>
         <v>units</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T107" s="2" t="str">
         <f>R107</f>
         <v>units</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="V107" s="2" t="str">
         <f>T107</f>
         <v>units</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="Y107" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6419,31 +6594,31 @@
     </row>
     <row r="108" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L108" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N108" s="2" t="str">
         <f t="shared" si="9"/>
         <v>member_id_src</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="P108" s="2" t="str">
         <f t="shared" si="10"/>
         <v>member_id_src</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="R108" s="2" t="str">
         <f t="shared" si="8"/>
         <v>member_id_src</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="T108" s="2" t="str">
         <f>R108</f>
@@ -6466,7 +6641,7 @@
     </row>
     <row r="109" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L109" s="2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="Y109" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6475,7 +6650,7 @@
     </row>
     <row r="110" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L110" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="Y110" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6484,7 +6659,7 @@
     </row>
     <row r="111" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L111" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="Y111" s="2" t="str">
         <f t="shared" si="13"/>
@@ -6506,7 +6681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A73A6D-0411-41CC-B083-29B5A842085C}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="R14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T58" sqref="T32:T58"/>
     </sheetView>
   </sheetViews>
@@ -6542,38 +6717,38 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -6586,50 +6761,50 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>_xlfn.CONCAT("spc_", C2)</f>
         <v>spc_claim_sequence_number</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O2" s="2" t="str">
         <f>M2</f>
         <v>spc_claim_sequence_number</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q2" s="2" t="str">
         <f>O2</f>
         <v>spc_claim_sequence_number</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T2" s="2" t="str">
         <f>_xlfn.CONCAT(M2:R2)</f>
@@ -6645,47 +6820,47 @@
         <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="M3" s="2" t="str">
         <f t="shared" ref="M3:M25" si="0">_xlfn.CONCAT("spc_", C3)</f>
         <v>spc_from_date_of_service</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O3" s="2" t="str">
         <f t="shared" ref="O3:O26" si="1">M3</f>
         <v>spc_from_date_of_service</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="2" t="str">
         <f t="shared" ref="Q3:Q26" si="2">O3</f>
         <v>spc_from_date_of_service</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T3" s="2" t="str">
         <f t="shared" ref="T3:T26" si="3">_xlfn.CONCAT(M3:R3)</f>
@@ -6701,47 +6876,47 @@
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="M4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_to_date_of_service</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_to_date_of_service</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_to_date_of_service</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T4" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6754,50 +6929,50 @@
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="M5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_place_of_service</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_place_of_service</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_place_of_service</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T5" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6812,50 +6987,50 @@
         <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="M6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_cpt_hcpcs_cd</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_cpt_hcpcs_cd</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_cpt_hcpcs_cd</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T6" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6870,50 +7045,50 @@
         <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_proc_mod_1</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_proc_mod_1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_proc_mod_1</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T7" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6928,50 +7103,50 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_proc_mod_2</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_proc_mod_2</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_proc_mod_2</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T8" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6984,50 +7159,50 @@
         <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="M9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_revenue_cd</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_revenue_cd</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_revenue_cd</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T9" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7040,50 +7215,50 @@
         <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_charge_amount</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_charge_amount</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_charge_amount</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T10" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7096,50 +7271,50 @@
         <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_allowed_amount</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_allowed_amount</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_allowed_amount</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T11" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7152,19 +7327,19 @@
         <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
@@ -7177,21 +7352,21 @@
         <v>spc_paid_amount</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_paid_amount</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_paid_amount</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T12" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7207,47 +7382,47 @@
         <v>12</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_ref_provider</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_ref_provider</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_ref_provider</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T13" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7260,50 +7435,50 @@
         <v>38</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="M14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_perf_rn_provider</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_perf_rn_provider</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_perf_rn_provider</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T14" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7316,10 +7491,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -7328,34 +7503,34 @@
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_perf_op_provider</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_perf_op_provider</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_perf_op_provider</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T15" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7371,47 +7546,47 @@
         <v>14</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_provider_type</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_provider_type</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_provider_type</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T16" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7424,50 +7599,50 @@
         <v>12</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_admit_date</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_admit_date</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_admit_date</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T17" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7480,50 +7655,50 @@
         <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="M18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_discharge_date</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_discharge_date</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_discharge_date</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T18" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7536,50 +7711,50 @@
         <v>14</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="M19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_discharge_status</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_discharge_status</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_discharge_status</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T19" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7595,47 +7770,47 @@
         <v>38</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="M20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_claim_id_src</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_claim_id_src</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_claim_id_src</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T20" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7648,50 +7823,50 @@
         <v>19</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_drg_cd</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_drg_cd</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_drg_cd</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T21" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7704,50 +7879,50 @@
         <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="M22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_bill_type_inst</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_bill_type_inst</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_bill_type_inst</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T22" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7760,50 +7935,50 @@
         <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="M23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_bill_type_class</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_bill_type_class</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_bill_type_class</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T23" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7816,50 +7991,50 @@
         <v>30</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="M24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_bill_type_freq</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_bill_type_freq</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_bill_type_freq</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T24" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7872,10 +8047,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8"/>
@@ -7884,34 +8059,34 @@
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>spc_units</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_units</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_units</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T25" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7924,50 +8099,50 @@
         <v>42</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="6" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="M26" s="2" t="str">
         <f>_xlfn.CONCAT("spc_", C26)</f>
         <v>spc_member_id_src</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="O26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>spc_member_id_src</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>spc_member_id_src</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="T26" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7976,17 +8151,17 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M28" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O29" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M32" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="T32" s="2" t="str">
         <f t="shared" ref="T32:T58" si="4">_xlfn.CONCAT(M32:R32)</f>
@@ -8009,7 +8184,7 @@
         <v>claim_sequence_number</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>46</v>
@@ -8024,7 +8199,7 @@
         <v>53</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f t="shared" ref="N34:N59" si="5">C3</f>
+        <f t="shared" ref="N34:N56" si="5">C3</f>
         <v>from_date_of_service</v>
       </c>
       <c r="O34" s="2" t="s">
@@ -8035,7 +8210,7 @@
         <v>from_date_of_service</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>46</v>
@@ -8061,7 +8236,7 @@
         <v>to_date_of_service</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>46</v>
@@ -8087,7 +8262,7 @@
         <v>place_of_service</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>46</v>
@@ -8113,7 +8288,7 @@
         <v>cpt_hcpcs_cd</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>46</v>
@@ -8139,7 +8314,7 @@
         <v>proc_mod_1</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>46</v>
@@ -8165,7 +8340,7 @@
         <v>proc_mod_2</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>46</v>
@@ -8191,7 +8366,7 @@
         <v>revenue_cd</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>46</v>
@@ -8217,7 +8392,7 @@
         <v>charge_amount</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>46</v>
@@ -8243,7 +8418,7 @@
         <v>allowed_amount</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>46</v>
@@ -8269,7 +8444,7 @@
         <v>paid_amount</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>46</v>
@@ -8295,7 +8470,7 @@
         <v>ref_provider</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>46</v>
@@ -8321,7 +8496,7 @@
         <v>perf_rn_provider</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>46</v>
@@ -8347,7 +8522,7 @@
         <v>perf_op_provider</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>46</v>
@@ -8373,7 +8548,7 @@
         <v>provider_type</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>46</v>
@@ -8399,7 +8574,7 @@
         <v>admit_date</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>46</v>
@@ -8425,7 +8600,7 @@
         <v>discharge_date</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>46</v>
@@ -8451,7 +8626,7 @@
         <v>discharge_status</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>46</v>
@@ -8477,7 +8652,7 @@
         <v>claim_id_src</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>46</v>
@@ -8503,7 +8678,7 @@
         <v>drg_cd</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>46</v>
@@ -8529,7 +8704,7 @@
         <v>bill_type_inst</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>46</v>
@@ -8555,7 +8730,7 @@
         <v>bill_type_class</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>46</v>
@@ -8581,7 +8756,7 @@
         <v>bill_type_freq</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>46</v>
@@ -8607,7 +8782,7 @@
         <v>units</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>46</v>
@@ -8633,7 +8808,7 @@
         <v>member_id_src</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>46</v>
@@ -8645,7 +8820,7 @@
     </row>
     <row r="58" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M58" s="2" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="T58" s="2" t="str">
         <f t="shared" si="4"/>
@@ -8664,950 +8839,2060 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044DC667-7510-4A20-8119-4824C8D2576C}">
-  <dimension ref="A1:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E27552-4987-4FA4-A1A4-3D6F7B780A7E}">
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="16"/>
+    <col min="8" max="8" width="13.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" style="16" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="16" t="str">
+        <f>_xlfn.CONCAT(G1:N1)</f>
+        <v>select top 50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="16" t="str">
+        <f t="shared" ref="P2:P15" si="0">_xlfn.CONCAT(G2:N2)</f>
+        <v>'2012' as spc_fy,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>'chip' as spc_table,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f>E2</f>
+        <v>rx_fill_dt</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="16" t="str">
+        <f>B2</f>
+        <v>fill_date</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>rx_fill_dt as spc_fill_date,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>8</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f>E3</f>
+        <v>ndc</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="16" t="str">
+        <f>B3</f>
+        <v>ndc</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>ndc as spc_ndc,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>9</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f>E4</f>
+        <v>rx_days_supply</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="16" t="str">
+        <f>B4</f>
+        <v>days_supply</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>rx_days_supply as spc_days_supply,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f>E5</f>
+        <v>rx_nbr</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="16" t="str">
+        <f>B5</f>
+        <v>script_id</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>rx_nbr as spc_script_id,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f>E6</f>
+        <v>refill_nbr</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="16" t="str">
+        <f>B6</f>
+        <v>refill_count</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>refill_nbr as spc_refill_count,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>16</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f>E7</f>
+        <v>qty_prescribed</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="16" t="str">
+        <f>B7</f>
+        <v>quantity</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>qty_prescribed as spc_quantity,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>17</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f>E8</f>
+        <v>prescriber_npi</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="16" t="str">
+        <f>B8</f>
+        <v>provider_npi</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>prescriber_npi as spc_provider_npi,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f>E9</f>
+        <v>phmcy_nbr</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="16" t="str">
+        <f>B9</f>
+        <v>pharmacy_id</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>phmcy_nbr as spc_pharmacy_id,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>36</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f>E10</f>
+        <v xml:space="preserve">gross_amt_due </v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="16" t="str">
+        <f>B10</f>
+        <v>total_charge_amount</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>gross_amt_due  as spc_total_charge_amount,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>24</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f>E11</f>
+        <v>amount_paid</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="16" t="str">
+        <f>B11</f>
+        <v>total_paid_amount</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>amount_paid as spc_total_paid_amount,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f>E12</f>
+        <v>pcn</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="16" t="str">
+        <f>B12</f>
+        <v>member_id_src</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>pcn as spc_member_id_src,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="P15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>concat(pcn, ndc, replace(rx_fill_dt, '-', '')) as rx_id</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="P16" s="16" t="str">
+        <f>_xlfn.CONCAT(G16:N16)</f>
+        <v>from medicaid.dbo.chip_rx_fy12 tablesample(6000 rows);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>4</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="T19" s="16" t="str">
+        <f>_xlfn.CONCAT(G19:R19)</f>
+        <v>select a.*,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>12</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f>B2</f>
+        <v>fill_date</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" s="16" t="str">
+        <f t="shared" ref="T20:T46" si="1">_xlfn.CONCAT(G20:R20)</f>
+        <v>b.fill_date,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>13</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f>B3</f>
+        <v>ndc</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.ndc,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="16" t="str">
+        <f>B4</f>
+        <v>days_supply</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.days_supply,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="16" t="str">
+        <f>B5</f>
+        <v>script_id</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.script_id,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>21</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="16" t="str">
+        <f>B6</f>
+        <v>refill_count</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.refill_count,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>22</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="16" t="str">
+        <f>B7</f>
+        <v>quantity</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.quantity,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="16" t="str">
+        <f>B8</f>
+        <v>provider_npi</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.provider_npi,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>25</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="16" t="str">
+        <f>B9</f>
+        <v>pharmacy_id</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.pharmacy_id,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="16" t="str">
+        <f>B10</f>
+        <v>total_charge_amount</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.total_charge_amount,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="16" t="str">
+        <f>B11</f>
+        <v>total_paid_amount</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.total_paid_amount,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="16" t="str">
+        <f>B12</f>
+        <v>member_id_src</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.member_id_src,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="16" t="str">
+        <f>B13</f>
+        <v>fiscal_year</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b.fiscal_year,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H32" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="16" t="str">
+        <f>H20</f>
+        <v>fill_date</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="16" t="str">
+        <f>H20</f>
+        <v>fill_date</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M32" s="16" t="str">
+        <f>I32</f>
+        <v>fill_date</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O32" s="16" t="str">
+        <f>M32</f>
+        <v>fill_date</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="16" t="str">
+        <f>O32</f>
+        <v>fill_date</v>
+      </c>
+      <c r="R32" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="T32" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.fill_date is null and a.spc_fill_date is not null then 1 when b.fill_date::text != a.spc_fill_date then 1 else 0 end as fill_date_mismatch,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H33" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" s="16" t="str">
+        <f t="shared" ref="I33:I43" si="2">H21</f>
+        <v>ndc</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="16" t="str">
+        <f t="shared" ref="K33:K43" si="3">H21</f>
+        <v>ndc</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M33" s="16" t="str">
+        <f t="shared" ref="M33:M43" si="4">I33</f>
+        <v>ndc</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" s="16" t="str">
+        <f t="shared" ref="O33:O43" si="5">M33</f>
+        <v>ndc</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="16" t="str">
+        <f t="shared" ref="Q33:Q43" si="6">O33</f>
+        <v>ndc</v>
+      </c>
+      <c r="R33" s="16" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="T33" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.ndc is null and a.spc_ndc is not null then 1 when b.ndc::text != a.spc_ndc then 1 else 0 end as ndc_mismatch,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B34" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>days_supply</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>days_supply</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M34" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>days_supply</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O34" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>days_supply</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>days_supply</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T34" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.days_supply is null and a.spc_days_supply is not null then 1 when b.days_supply::text != a.spc_days_supply then 1 else 0 end as days_supply_mismatch,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B35" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="I35" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>script_id</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>script_id</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M35" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>script_id</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O35" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>script_id</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>script_id</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T35" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.script_id is null and a.spc_script_id is not null then 1 when b.script_id::text != a.spc_script_id then 1 else 0 end as script_id_mismatch,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>34</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="I36" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>refill_count</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>refill_count</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M36" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>refill_count</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O36" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>refill_count</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q36" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>refill_count</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T36" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.refill_count is null and a.spc_refill_count is not null then 1 when b.refill_count::text != a.spc_refill_count then 1 else 0 end as refill_count_mismatch,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>35</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="I37" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>quantity</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>quantity</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M37" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>quantity</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O37" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>quantity</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q37" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>quantity</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T37" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.quantity is null and a.spc_quantity is not null then 1 when b.quantity::float != a.spc_quantity::float then 1 else 0 end as quantity_mismatch,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="I38" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>provider_npi</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>provider_npi</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M38" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>provider_npi</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O38" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>provider_npi</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>provider_npi</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T38" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.provider_npi is null and a.spc_provider_npi is not null then 1 when b.provider_npi::text != a.spc_provider_npi then 1 else 0 end as provider_npi_mismatch,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="I39" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>pharmacy_id</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>pharmacy_id</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M39" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>pharmacy_id</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O39" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>pharmacy_id</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>pharmacy_id</v>
+      </c>
+      <c r="R39" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T39" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.pharmacy_id is null and a.spc_pharmacy_id is not null then 1 when b.pharmacy_id::text != a.spc_pharmacy_id then 1 else 0 end as pharmacy_id_mismatch,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" t="s">
-        <v>118</v>
+      <c r="I40" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>total_charge_amount</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>total_charge_amount</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M40" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>total_charge_amount</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O40" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>total_charge_amount</v>
+      </c>
+      <c r="P40" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q40" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>total_charge_amount</v>
+      </c>
+      <c r="R40" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T40" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.total_charge_amount is null and a.spc_total_charge_amount is not null then 1 when b.total_charge_amount::float != a.spc_total_charge_amount::float then 1 else 0 end as total_charge_amount_mismatch,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G41" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>total_paid_amount</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>total_paid_amount</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M41" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>total_paid_amount</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O41" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>total_paid_amount</v>
+      </c>
+      <c r="P41" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q41" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>total_paid_amount</v>
+      </c>
+      <c r="R41" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T41" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.total_paid_amount is null and a.spc_total_paid_amount is not null then 1 when b.total_paid_amount::float != a.spc_total_paid_amount::float then 1 else 0 end as total_paid_amount_mismatch,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G42" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>member_id_src</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>member_id_src</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M42" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>member_id_src</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O42" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>member_id_src</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>member_id_src</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T42" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.member_id_src is null and a.spc_member_id_src is not null then 1 when b.member_id_src::text != a.spc_member_id_src then 1 else 0 end as member_id_src_mismatch,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G43" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>fiscal_year</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M43" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>fiscal_year</v>
+      </c>
+      <c r="N43" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O43" s="16" t="str">
+        <f>K43</f>
+        <v>fy</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" s="16" t="str">
+        <f>O43</f>
+        <v>fy</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="T43" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>case when b.fiscal_year is null and a.spc_fy is not null then 1 when b.fiscal_year::text != a.spc_fy then 1 else 0 end as fy_mismatch,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G44" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="T44" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>into dev.xz_dwqa_temp2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G45" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="T45" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>from dev.xz_dwqa_temp1 a left join dw_staging.pharmacy_claims b</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G46" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="T46" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>on a.rx_id = b.rx_claim_id_src;</v>
+      </c>
+    </row>
+    <row r="49" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G49" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="M49" s="16" t="str">
+        <f>_xlfn.CONCAT(G49:K49)</f>
+        <v>select spc_fy,</v>
+      </c>
+    </row>
+    <row r="50" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G50" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="16" t="str">
+        <f>Q32</f>
+        <v>fill_date</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="16" t="str">
+        <f>H50</f>
+        <v>fill_date</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" s="16" t="str">
+        <f t="shared" ref="M50:M65" si="7">_xlfn.CONCAT(G50:K50)</f>
+        <v>sum(fill_date_mismatch) as fill_date_mismatches,</v>
+      </c>
+    </row>
+    <row r="51" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G51" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="16" t="str">
+        <f t="shared" ref="H51:H64" si="8">Q33</f>
+        <v>ndc</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="16" t="str">
+        <f t="shared" ref="J51:J61" si="9">H51</f>
+        <v>ndc</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M51" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(ndc_mismatch) as ndc_mismatches,</v>
+      </c>
+    </row>
+    <row r="52" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G52" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>days_supply</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>days_supply</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M52" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(days_supply_mismatch) as days_supply_mismatches,</v>
+      </c>
+    </row>
+    <row r="53" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G53" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>script_id</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>script_id</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M53" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(script_id_mismatch) as script_id_mismatches,</v>
+      </c>
+    </row>
+    <row r="54" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G54" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>refill_count</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>refill_count</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M54" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(refill_count_mismatch) as refill_count_mismatches,</v>
+      </c>
+    </row>
+    <row r="55" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G55" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>quantity</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>quantity</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M55" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(quantity_mismatch) as quantity_mismatches,</v>
+      </c>
+    </row>
+    <row r="56" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G56" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>provider_npi</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>provider_npi</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M56" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(provider_npi_mismatch) as provider_npi_mismatches,</v>
+      </c>
+    </row>
+    <row r="57" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G57" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>pharmacy_id</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>pharmacy_id</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M57" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(pharmacy_id_mismatch) as pharmacy_id_mismatches,</v>
+      </c>
+    </row>
+    <row r="58" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G58" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>total_charge_amount</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>total_charge_amount</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M58" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(total_charge_amount_mismatch) as total_charge_amount_mismatches,</v>
+      </c>
+    </row>
+    <row r="59" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G59" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>total_paid_amount</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>total_paid_amount</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M59" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(total_paid_amount_mismatch) as total_paid_amount_mismatches,</v>
+      </c>
+    </row>
+    <row r="60" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G60" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>member_id_src</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>member_id_src</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M60" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(member_id_src_mismatch) as member_id_src_mismatches,</v>
+      </c>
+    </row>
+    <row r="61" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G61" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>fy</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>fy</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M61" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>sum(fy_mismatch) as fy_mismatches,</v>
+      </c>
+    </row>
+    <row r="62" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G62" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M62" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>count(*) as rows_checked</v>
+      </c>
+    </row>
+    <row r="63" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G63" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="M63" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>from devxz_dwqa_temp2</v>
+      </c>
+    </row>
+    <row r="64" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G64" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="M64" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>group by spc_fy</v>
+      </c>
+    </row>
+    <row r="65" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G65" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="M65" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>order by spc_fy;</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I42" xr:uid="{044DC667-7510-4A20-8119-4824C8D2576C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I42">
-      <sortCondition ref="H1:H42"/>
+  <autoFilter ref="A1:E40" xr:uid="{D7E27552-4987-4FA4-A1A4-3D6F7B780A7E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+      <sortCondition ref="D1:D40"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23803DC9-354E-4678-8B3F-935D83272409}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="A4:S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R4" t="s">
+        <v>215</v>
+      </c>
+      <c r="S4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>